--- a/_CLUSTER/groups_time_area/PCA_time/control_points_count.xlsx
+++ b/_CLUSTER/groups_time_area/PCA_time/control_points_count.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,42 +373,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1144</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>988</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>792</v>
+        <v>949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>578</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
